--- a/DMS/Templates/Report_Direct_Sales_Order_By_Employee_And_Item.xlsx
+++ b/DMS/Templates/Report_Direct_Sales_Order_By_Employee_And_Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87E90EA-D71C-4CD0-88C4-BF6A0BD0581A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48717C6-A79F-4710-A95A-980CE4FC3C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
     <t>{{ReportSalesOrderByEmployeeAndItems.SaleEmployees.Items.SalesOrderCounter}}</t>
   </si>
   <si>
-    <t>BÁO CÁO BÁN HÀNG THEO NHÂN VIÊN VÀ SẢN PHẨM TRỰC TIẾP</t>
+    <t>BÁO CÁO BÁN HÀNG TRỰC TIẾP THEO NHÂN VIÊN VÀ SẢN PHẨM</t>
   </si>
 </sst>
 </file>
@@ -619,7 +619,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:P4"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
